--- a/timesheets-v2-chatgpt.xlsx
+++ b/timesheets-v2-chatgpt.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ca61813ac057022/Documents/1 Job Costing/1 summer/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{DC66CAAE-FD7F-473A-BC7B-1331BB6DA95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F98C4E3-3C37-4966-8B48-0DBD15D9CFF0}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{DC66CAAE-FD7F-473A-BC7B-1331BB6DA95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{467B624D-ECD8-428C-A439-183CE6274639}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93A08DBA-AC14-4CA0-BAD3-132891508A66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{93A08DBA-AC14-4CA0-BAD3-132891508A66}"/>
   </bookViews>
   <sheets>
     <sheet name="pub_output_csv (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">'pub_output_csv (2)'!$A$1:$D$116</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">'pub_output_csv (2)'!$B$1:$F$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -536,13 +537,25 @@
   </si>
   <si>
     <t>Trucking - Landscape</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Hours Worked 1</t>
+  </si>
+  <si>
+    <t>Hours Worked 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -582,8 +595,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,8 +617,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -635,6 +662,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -642,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -661,6 +701,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,10 +744,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="1" xr16:uid="{EEA0F8EE-3EA4-4999-B0E3-21B66AFDEC02}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="32">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="33">
+    <queryTableFields count="5">
       <queryTableField id="4" name="3. Project/Site" tableColumnId="4"/>
       <queryTableField id="5" name="4. Crew (select all that were on the crew INCLUDING the Supervisor)." tableColumnId="5"/>
+      <queryTableField id="32" dataBound="0" tableColumnId="1"/>
       <queryTableField id="7" name="Job Function 1" tableColumnId="7"/>
       <queryTableField id="10" name="Job Function 2" tableColumnId="10"/>
     </queryTableFields>
@@ -735,11 +780,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABF49E76-2B5B-41A8-8DC8-8EB379C50CF2}" name="pub?output_csv_15" displayName="pub?output_csv_15" ref="A1:D116" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D116" xr:uid="{C9FEC683-A820-40B7-9A61-05F5B51CF9C2}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABF49E76-2B5B-41A8-8DC8-8EB379C50CF2}" name="pub?output_csv_15" displayName="pub?output_csv_15" ref="B1:F116" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B1:F116" xr:uid="{C9FEC683-A820-40B7-9A61-05F5B51CF9C2}"/>
+  <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{C6966DFC-B8C0-43DA-B801-6F9CD5AADFE7}" uniqueName="4" name="Project/Site" queryTableFieldId="4" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{D1448161-4F74-4DC7-9F0C-4141DD5BA734}" uniqueName="5" name="Name" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EB8AB418-8EE9-435F-BD3C-9A3D91D9266E}" uniqueName="1" name="Column1" queryTableFieldId="32" dataCellStyle="Normal 7"/>
     <tableColumn id="7" xr3:uid="{A279A22F-D463-4FA0-9057-77B937E3249C}" uniqueName="7" name="Job Function 1" queryTableFieldId="7" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{AE448634-6E8A-4552-94C4-2A5B6520F0EB}" uniqueName="10" name="Job Function 2" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
@@ -1065,801 +1111,837 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D4BEB5-C41F-41DF-9C9C-B1E3F5AD9D54}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="D28" workbookViewId="0">
+      <selection sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="81.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="38.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="81.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1868,6 +1950,612 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445BFC85-ACB4-4874-8B4B-A2224202C220}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
